--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_6_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_6_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.20182174202611</v>
+        <v>15363.16252666315</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.20182174202611</v>
+        <v>15363.16252666315</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61120.21045850952</v>
+        <v>4449074.331139799</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61120.21045850952</v>
+        <v>4449074.331139799</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609778638.18302</v>
+        <v>62020942.67193952</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14642.41932987582</v>
+        <v>1424139.48060518</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28696.50113130363</v>
+        <v>2746485.372954404</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42750.58293273142</v>
+        <v>4068831.26530363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59585.58776494432</v>
+        <v>5173857.813650654</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75135.19545377366</v>
+        <v>6413927.331852941</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90684.80314260299</v>
+        <v>7653996.850055221</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106238.2120435535</v>
+        <v>8894160.923409017</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121792.689417445</v>
+        <v>10134268.83926964</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138651.246668567</v>
+        <v>11237264.60252465</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154176.25274781</v>
+        <v>12480162.13932885</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169701.2588270529</v>
+        <v>13723059.67613304</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185226.2649062958</v>
+        <v>14965957.21293724</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200751.2709855387</v>
+        <v>16208854.74974145</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217077.4905669944</v>
+        <v>17365687.3107429</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>237069.9259250815</v>
+        <v>18068418.03199136</v>
       </c>
     </row>
   </sheetData>
